--- a/cohort_analysis_report.xlsx
+++ b/cohort_analysis_report.xlsx
@@ -20,10 +20,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -83,12 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3029,8 +3023,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44197</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>2444</v>
@@ -3043,8 +3039,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44228</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>26030</v>
@@ -3057,8 +3055,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44256</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>35126</v>
@@ -3071,8 +3071,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44287</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>41276</v>
@@ -3085,8 +3087,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44317</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>88693</v>
@@ -3099,8 +3103,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44348</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>148163</v>
@@ -3113,8 +3119,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44378</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>121782</v>
@@ -3127,8 +3135,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44409</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>70009</v>
